--- a/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TMM" sheetId="1" r:id="rId1"/>
@@ -927,16 +927,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112182</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286807</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
+      <xdr:rowOff>62441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2307166</xdr:colOff>
+      <xdr:colOff>1624541</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>141816</xdr:rowOff>
+      <xdr:rowOff>30691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -960,8 +960,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="990599" y="370416"/>
-          <a:ext cx="2840567" cy="914400"/>
+          <a:off x="286807" y="243416"/>
+          <a:ext cx="2861734" cy="873125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,11 +1335,9 @@
   </sheetPr>
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15:D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1782,10 +1780,21 @@
     <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="A11:AF23">
     <sortCondition ref="C11:C23"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="F9:F10"/>
@@ -1802,19 +1811,9 @@
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -2319,7 +2318,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="C5:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>MAECCO JULIO 2018</t>
+  </si>
+  <si>
+    <t>IMSS_CS</t>
+  </si>
+  <si>
+    <t>RCV_CS</t>
+  </si>
+  <si>
+    <t>Infonavit_CS</t>
+  </si>
+  <si>
+    <t>ISN_CS</t>
   </si>
 </sst>
 </file>
@@ -729,7 +741,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -830,6 +842,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,11 +1346,11 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1362,17 +1375,19 @@
     <col min="21" max="21" width="13.140625" style="39" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" style="39" customWidth="1"/>
     <col min="23" max="23" width="15.5703125" style="39" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="39" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="39" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" style="39" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" style="39" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="39" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="39"/>
-    <col min="30" max="30" width="13.85546875" style="39" customWidth="1"/>
-    <col min="31" max="16384" width="11.5703125" style="39"/>
+    <col min="24" max="25" width="10.85546875" style="39" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="17.5703125" style="39" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="39" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="39" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" style="39" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="39"/>
+    <col min="33" max="33" width="13.85546875" style="39" customWidth="1"/>
+    <col min="34" max="16384" width="11.5703125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
@@ -1403,8 +1418,14 @@
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1433,8 +1454,14 @@
       <c r="Z2" s="40"/>
       <c r="AA2" s="40"/>
       <c r="AB2" s="40"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1463,8 +1490,14 @@
       <c r="Z3" s="40"/>
       <c r="AA3" s="40"/>
       <c r="AB3" s="40"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -1493,8 +1526,14 @@
       <c r="Z4" s="40"/>
       <c r="AA4" s="40"/>
       <c r="AB4" s="40"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -1523,8 +1562,14 @@
       <c r="Z5" s="40"/>
       <c r="AA5" s="40"/>
       <c r="AB5" s="40"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1553,8 +1598,14 @@
       <c r="Z6" s="40"/>
       <c r="AA6" s="40"/>
       <c r="AB6" s="40"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1579,12 +1630,18 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>79</v>
       </c>
@@ -1615,136 +1672,154 @@
       <c r="Z8" s="40"/>
       <c r="AA8" s="40"/>
       <c r="AB8" s="40"/>
-    </row>
-    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+    </row>
+    <row r="9" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="52" t="s">
         <v>52</v>
       </c>
       <c r="P9" s="44"/>
-      <c r="Q9" s="50" t="s">
+      <c r="Q9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50" t="s">
+      <c r="T9" s="51"/>
+      <c r="U9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="50" t="s">
+      <c r="V9" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="W9" s="50" t="s">
+      <c r="W9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="50" t="s">
+      <c r="X9" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA9" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="50" t="s">
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="50" t="s">
+      <c r="AG9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="50" t="s">
+      <c r="AH9" s="51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
+    <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="44"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="45" t="s">
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AA10" s="45" t="s">
+      <c r="AD10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-    </row>
-    <row r="11" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AB11" s="35" t="e">
-        <f>#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="AE10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+    </row>
+    <row r="11" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+    </row>
+    <row r="14" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1784,8 +1859,7 @@
   <sortState ref="A11:AF23">
     <sortCondition ref="C11:C23"/>
   </sortState>
-  <mergeCells count="26">
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="30">
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A9:A10"/>
@@ -1795,22 +1869,27 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AG9:AG10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
@@ -1863,39 +1942,39 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:39" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1972,15 +2051,15 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -2180,57 +2259,57 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>

--- a/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>ISN_CS</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ADEUDO INFONAVIT S</t>
+  </si>
+  <si>
+    <t>DIFERENCIA INFONAVIT S</t>
   </si>
 </sst>
 </file>
@@ -1346,11 +1355,11 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI13" sqref="AI13"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1366,28 +1375,28 @@
     <col min="9" max="9" width="15" style="39" customWidth="1"/>
     <col min="10" max="11" width="14.5703125" style="39" customWidth="1"/>
     <col min="12" max="13" width="15.140625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" style="39" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="39" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" style="39" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="39" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="39" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="39" customWidth="1"/>
-    <col min="24" max="25" width="10.85546875" style="39" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="39" customWidth="1"/>
-    <col min="28" max="28" width="17.5703125" style="39" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="39" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" style="39" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" style="39" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="39"/>
-    <col min="33" max="33" width="13.85546875" style="39" customWidth="1"/>
-    <col min="34" max="16384" width="11.5703125" style="39"/>
+    <col min="14" max="16" width="15.5703125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" style="39" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="39" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="39" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="39" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="39" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" style="39" customWidth="1"/>
+    <col min="26" max="27" width="10.85546875" style="39" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="39" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" style="39" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" style="39" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="39" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" style="39" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" style="39" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="39"/>
+    <col min="35" max="35" width="13.85546875" style="39" customWidth="1"/>
+    <col min="36" max="16384" width="11.5703125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
@@ -1424,8 +1433,10 @@
       <c r="AF1" s="37"/>
       <c r="AG1" s="37"/>
       <c r="AH1" s="37"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1460,8 +1471,10 @@
       <c r="AF2" s="40"/>
       <c r="AG2" s="40"/>
       <c r="AH2" s="40"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1496,8 +1509,10 @@
       <c r="AF3" s="40"/>
       <c r="AG3" s="40"/>
       <c r="AH3" s="40"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -1532,8 +1547,10 @@
       <c r="AF4" s="40"/>
       <c r="AG4" s="40"/>
       <c r="AH4" s="40"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -1568,8 +1585,10 @@
       <c r="AF5" s="40"/>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1604,8 +1623,10 @@
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
       <c r="AH6" s="40"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1633,15 +1654,17 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="40"/>
-      <c r="AB7" s="42"/>
+      <c r="AB7" s="40"/>
       <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
+      <c r="AD7" s="42"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
       <c r="AG7" s="40"/>
       <c r="AH7" s="40"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>79</v>
       </c>
@@ -1678,8 +1701,10 @@
       <c r="AF8" s="40"/>
       <c r="AG8" s="40"/>
       <c r="AH8" s="40"/>
-    </row>
-    <row r="9" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+    </row>
+    <row r="9" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>4</v>
       </c>
@@ -1722,57 +1747,63 @@
       <c r="N9" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="51" t="s">
+      <c r="R9" s="44"/>
+      <c r="S9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="T9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="51" t="s">
+      <c r="U9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51" t="s">
+      <c r="V9" s="51"/>
+      <c r="W9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="51" t="s">
+      <c r="X9" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="W9" s="51" t="s">
+      <c r="Y9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="Z9" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" s="51" t="s">
+      <c r="AA9" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="Z9" s="51" t="s">
+      <c r="AB9" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AA9" s="51" t="s">
+      <c r="AC9" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AB9" s="51" t="s">
+      <c r="AD9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="51" t="s">
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG9" s="51" t="s">
+      <c r="AI9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AH9" s="51" t="s">
+      <c r="AJ9" s="51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1787,10 +1818,10 @@
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="51"/>
       <c r="T10" s="51"/>
       <c r="U10" s="51"/>
@@ -1801,25 +1832,31 @@
       <c r="Z10" s="51"/>
       <c r="AA10" s="51"/>
       <c r="AB10" s="51"/>
-      <c r="AC10" s="45" t="s">
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="45" t="s">
+      <c r="AF10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" s="51"/>
       <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-    </row>
-    <row r="11" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-    </row>
-    <row r="14" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+    </row>
+    <row r="11" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1859,7 +1896,30 @@
   <sortState ref="A11:AF23">
     <sortCondition ref="C11:C23"/>
   </sortState>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A9:A10"/>
@@ -1869,27 +1929,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AG9:AG10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>

--- a/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
@@ -9,19 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TMM" sheetId="1" r:id="rId1"/>
     <sheet name="MAECCO" sheetId="2" r:id="rId2"/>
     <sheet name="SINDICATO" sheetId="3" r:id="rId3"/>
     <sheet name="FACTURACION" sheetId="6" r:id="rId4"/>
+    <sheet name="PENSION ALIMENTICIA" sheetId="7" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="__TC1">[1]FOR!$B$9</definedName>
+    <definedName name="__TC2">[1]FOR!$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MAECCO!$A$11:$AM$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PENSION ALIMENTICIA'!$B$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TMM!#REF!</definedName>
+    <definedName name="_TC1">[2]FOR!$B$9</definedName>
+    <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MAECCO!$A$11:$L$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">SINDICATO!$B$2:$J$7</definedName>
+    <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
+    <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
+    <definedName name="LISUB">[3]FOR!$F$46:$F$53</definedName>
+    <definedName name="mensual1">[3]FOR!$F$36:$I$40</definedName>
+    <definedName name="mensual2">[3]FOR!$F$46:$I$53</definedName>
+    <definedName name="mensual3">[3]FOR!$F$59:$H$71</definedName>
+    <definedName name="SMG">[2]FOR!$B$2</definedName>
+    <definedName name="STATUS">#REF!</definedName>
+    <definedName name="TCF">[2]FOR!$B$8</definedName>
+    <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -62,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -326,6 +347,18 @@
   </si>
   <si>
     <t>DIFERENCIA INFONAVIT S</t>
+  </si>
+  <si>
+    <t>NOMBRE TRABAJADOR</t>
+  </si>
+  <si>
+    <t>NOMBRE BENFICIARIO</t>
+  </si>
+  <si>
+    <t>CLABE</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
   </si>
 </sst>
 </file>
@@ -336,7 +369,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +516,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,8 +583,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -733,8 +800,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -749,8 +831,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -852,6 +938,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,17 +1002,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Comma_2 SALARIOS" xfId="7"/>
     <cellStyle name="Hipervínculo 2" xfId="9"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2 2" xfId="4"/>
     <cellStyle name="Millares 2 2 2" xfId="6"/>
+    <cellStyle name="Millares 5" xfId="13"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 417" xfId="12"/>
+    <cellStyle name="Normal 5" xfId="11"/>
     <cellStyle name="Normal 7" xfId="2"/>
+    <cellStyle name="Normal 7 2" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1063,6 +1161,431 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FOR"/>
+      <sheetName val="IMSS"/>
+      <sheetName val="puestos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="B2">
+            <v>51.95</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1370</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1370</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FOR"/>
+      <sheetName val="IMSS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="B2">
+            <v>51.95</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>54.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>164.39999999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1370</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1370</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IETU"/>
+      <sheetName val="PERSONAL OP ROV"/>
+      <sheetName val="DATOS"/>
+      <sheetName val="AHORRO"/>
+      <sheetName val="ISR"/>
+      <sheetName val="IMSS"/>
+      <sheetName val="FOR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1">
+        <row r="36">
+          <cell r="F36">
+            <v>0.01</v>
+          </cell>
+          <cell r="G36">
+            <v>496.08</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+          <cell r="I36">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="F37">
+            <v>496.09</v>
+          </cell>
+          <cell r="G37">
+            <v>4210.41</v>
+          </cell>
+          <cell r="H37">
+            <v>14.88</v>
+          </cell>
+          <cell r="I37">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38">
+            <v>4210.42</v>
+          </cell>
+          <cell r="G38">
+            <v>7399.42</v>
+          </cell>
+          <cell r="H38">
+            <v>386.31</v>
+          </cell>
+          <cell r="I38">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39">
+            <v>7399.43</v>
+          </cell>
+          <cell r="G39">
+            <v>8601.5</v>
+          </cell>
+          <cell r="H39">
+            <v>928.46</v>
+          </cell>
+          <cell r="I39">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="F40">
+            <v>8601.51</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>en adelante</v>
+          </cell>
+          <cell r="H40">
+            <v>1228.98</v>
+          </cell>
+          <cell r="I40">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0.01</v>
+          </cell>
+          <cell r="G46">
+            <v>496.07</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+          <cell r="I46">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>496.08</v>
+          </cell>
+          <cell r="G47">
+            <v>4210.41</v>
+          </cell>
+          <cell r="H47">
+            <v>7.44</v>
+          </cell>
+          <cell r="I47">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>4210.42</v>
+          </cell>
+          <cell r="G48">
+            <v>7399.42</v>
+          </cell>
+          <cell r="H48">
+            <v>193.17</v>
+          </cell>
+          <cell r="I48">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>7399.43</v>
+          </cell>
+          <cell r="G49">
+            <v>8601.5</v>
+          </cell>
+          <cell r="H49">
+            <v>464.19</v>
+          </cell>
+          <cell r="I49">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>8601.51</v>
+          </cell>
+          <cell r="G50">
+            <v>10298.35</v>
+          </cell>
+          <cell r="H50">
+            <v>614.49</v>
+          </cell>
+          <cell r="I50">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>10298.36</v>
+          </cell>
+          <cell r="G51">
+            <v>20770.29</v>
+          </cell>
+          <cell r="H51">
+            <v>852.05</v>
+          </cell>
+          <cell r="I51">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52">
+            <v>20770.3</v>
+          </cell>
+          <cell r="G52">
+            <v>32736.83</v>
+          </cell>
+          <cell r="H52">
+            <v>2024.91</v>
+          </cell>
+          <cell r="I52">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>32736.84</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>En adelante</v>
+          </cell>
+          <cell r="H53">
+            <v>3030.1</v>
+          </cell>
+          <cell r="I53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>0.01</v>
+          </cell>
+          <cell r="G59">
+            <v>1768.96</v>
+          </cell>
+          <cell r="H59">
+            <v>407.02</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>1768.97</v>
+          </cell>
+          <cell r="G60">
+            <v>2604.6799999999998</v>
+          </cell>
+          <cell r="H60">
+            <v>406.83</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>2604.69</v>
+          </cell>
+          <cell r="G61">
+            <v>2653.38</v>
+          </cell>
+          <cell r="H61">
+            <v>406.83</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>2653.39</v>
+          </cell>
+          <cell r="G62">
+            <v>3472.84</v>
+          </cell>
+          <cell r="H62">
+            <v>406.62</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>3472.85</v>
+          </cell>
+          <cell r="G63">
+            <v>3537.87</v>
+          </cell>
+          <cell r="H63">
+            <v>392.77</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>3537.88</v>
+          </cell>
+          <cell r="G64">
+            <v>3785.54</v>
+          </cell>
+          <cell r="H64">
+            <v>382.46</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>3785.55</v>
+          </cell>
+          <cell r="G65">
+            <v>4446.1499999999996</v>
+          </cell>
+          <cell r="H65">
+            <v>382.46</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>4446.16</v>
+          </cell>
+          <cell r="G66">
+            <v>4717.18</v>
+          </cell>
+          <cell r="H66">
+            <v>354.23</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>4717.1899999999996</v>
+          </cell>
+          <cell r="G67">
+            <v>5335.42</v>
+          </cell>
+          <cell r="H67">
+            <v>324.87</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>5335.43</v>
+          </cell>
+          <cell r="G68">
+            <v>6224.67</v>
+          </cell>
+          <cell r="H68">
+            <v>294.63</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>6224.68</v>
+          </cell>
+          <cell r="G69">
+            <v>7113.9</v>
+          </cell>
+          <cell r="H69">
+            <v>253.54</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>7113.91</v>
+          </cell>
+          <cell r="G70">
+            <v>7382.33</v>
+          </cell>
+          <cell r="H70">
+            <v>217.61</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>7382.34</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>En adelante</v>
+          </cell>
+          <cell r="H71">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,9 +1880,9 @@
   </sheetPr>
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1705,144 +2228,144 @@
       <c r="AJ8" s="40"/>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="52" t="s">
+      <c r="Q9" s="56" t="s">
         <v>52</v>
       </c>
       <c r="R9" s="44"/>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="51" t="s">
+      <c r="T9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="51" t="s">
+      <c r="U9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51" t="s">
+      <c r="V9" s="55"/>
+      <c r="W9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="51" t="s">
+      <c r="Y9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="Z9" s="51" t="s">
+      <c r="Z9" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AA9" s="51" t="s">
+      <c r="AA9" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="51" t="s">
+      <c r="AB9" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AC9" s="51" t="s">
+      <c r="AC9" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="AD9" s="51" t="s">
+      <c r="AD9" s="55" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="46"/>
       <c r="AF9" s="46"/>
-      <c r="AG9" s="51" t="s">
+      <c r="AG9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="51" t="s">
+      <c r="AI9" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="51" t="s">
+      <c r="AJ9" s="55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
       <c r="R10" s="44"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
       <c r="AE10" s="45" t="s">
         <v>2</v>
       </c>
       <c r="AF10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
+      <c r="AG10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q11" s="35" t="s">
@@ -1897,17 +2420,15 @@
     <sortCondition ref="C11:C23"/>
   </sortState>
   <mergeCells count="32">
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
@@ -1922,6 +2443,7 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -1929,6 +2451,7 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
@@ -1981,39 +2504,39 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:39" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2090,15 +2613,15 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -2298,57 +2821,57 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="65"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -2702,4 +3225,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="53"/>
+    <col min="2" max="2" width="37" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="34" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="53" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="54"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:H1">
+    <sortState ref="B2:G2">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
+++ b/NominasMaecco/bin/Debug/Archivos/tmmMaecco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TMM" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -235,9 +235,6 @@
     <t>IVA</t>
   </si>
   <si>
-    <t>% COMISION</t>
-  </si>
-  <si>
     <t>SUELDO ORDINARIO TMM</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>ISN_CS</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>ADEUDO INFONAVIT S</t>
   </si>
   <si>
@@ -359,6 +353,15 @@
   </si>
   <si>
     <t>PORCENTAJE</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
+  </si>
+  <si>
+    <t>% COMISION SA</t>
+  </si>
+  <si>
+    <t>% COMISION COMPLEMENTO</t>
   </si>
 </sst>
 </file>
@@ -525,6 +528,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -836,7 +840,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -926,12 +930,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1878,11 +1879,11 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI1" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1903,8 +1904,7 @@
     <col min="18" max="18" width="5.28515625" style="39" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="39" customWidth="1"/>
     <col min="20" max="21" width="15.5703125" style="39" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="39" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="39" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="39" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" style="39" customWidth="1"/>
     <col min="25" max="25" width="15.5703125" style="39" customWidth="1"/>
     <col min="26" max="27" width="10.85546875" style="39" customWidth="1"/>
@@ -1912,14 +1912,14 @@
     <col min="29" max="29" width="10.28515625" style="39" customWidth="1"/>
     <col min="30" max="30" width="17.5703125" style="39" customWidth="1"/>
     <col min="31" max="31" width="17.28515625" style="39" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" style="39" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="39" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="39"/>
-    <col min="35" max="35" width="13.85546875" style="39" customWidth="1"/>
-    <col min="36" max="16384" width="11.5703125" style="39"/>
+    <col min="32" max="33" width="15.28515625" style="39" customWidth="1"/>
+    <col min="34" max="34" width="18.7109375" style="39" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" style="39"/>
+    <col min="36" max="36" width="13.85546875" style="39" customWidth="1"/>
+    <col min="37" max="16384" width="11.5703125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
@@ -1958,8 +1958,9 @@
       <c r="AH1" s="37"/>
       <c r="AI1" s="37"/>
       <c r="AJ1" s="37"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK1" s="37"/>
+    </row>
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1996,8 +1997,9 @@
       <c r="AH2" s="40"/>
       <c r="AI2" s="40"/>
       <c r="AJ2" s="40"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK2" s="40"/>
+    </row>
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2034,8 +2036,9 @@
       <c r="AH3" s="40"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK3" s="40"/>
+    </row>
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2072,8 +2075,9 @@
       <c r="AH4" s="40"/>
       <c r="AI4" s="40"/>
       <c r="AJ4" s="40"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK4" s="40"/>
+    </row>
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -2110,8 +2114,9 @@
       <c r="AH5" s="40"/>
       <c r="AI5" s="40"/>
       <c r="AJ5" s="40"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK5" s="40"/>
+    </row>
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2148,8 +2153,9 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="40"/>
       <c r="AJ6" s="40"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK6" s="40"/>
+    </row>
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2186,10 +2192,11 @@
       <c r="AH7" s="40"/>
       <c r="AI7" s="40"/>
       <c r="AJ7" s="40"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK7" s="40"/>
+    </row>
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="40"/>
@@ -2226,160 +2233,164 @@
       <c r="AH8" s="40"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="40"/>
-    </row>
-    <row r="9" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="AK8" s="40"/>
+    </row>
+    <row r="9" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="55" t="s">
+      <c r="R9" s="44"/>
+      <c r="S9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD9" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH9" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="U9" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y9" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z9" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA9" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB9" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC9" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD9" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI9" s="55" t="s">
+      <c r="AK9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
+    </row>
+    <row r="10" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
       <c r="R10" s="44"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-    </row>
-    <row r="11" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Q11" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-    </row>
-    <row r="14" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+    </row>
+    <row r="11" spans="1:37" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:37" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+    </row>
+    <row r="14" spans="1:37" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:37" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:37" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2419,9 +2430,28 @@
   <sortState ref="A11:AF23">
     <sortCondition ref="C11:C23"/>
   </sortState>
-  <mergeCells count="32">
-    <mergeCell ref="AI9:AI10"/>
+  <mergeCells count="35">
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="O9:O10"/>
@@ -2432,26 +2462,10 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
@@ -2504,39 +2518,39 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:39" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2613,15 +2627,15 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -2659,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>17</v>
@@ -2668,7 +2682,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>43</v>
@@ -2701,7 +2715,7 @@
         <v>24</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S11" s="34" t="s">
         <v>25</v>
@@ -2731,7 +2745,7 @@
         <v>33</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>34</v>
@@ -2740,19 +2754,19 @@
         <v>35</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG11" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="AI11" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="AJ11" s="13" t="s">
         <v>45</v>
@@ -2798,7 +2812,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="45" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" hidden="1" customWidth="1"/>
@@ -2821,97 +2835,97 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
+      <c r="B2" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="66" t="s">
+      <c r="G3" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="28"/>
       <c r="G5" s="31"/>
       <c r="H5" s="32"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
       <c r="L5"/>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="28"/>
       <c r="G6" s="31"/>
       <c r="H6" s="32"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="28"/>
       <c r="G7" s="31"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
@@ -2919,7 +2933,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="45"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="J9" s="30"/>
@@ -2974,33 +2988,33 @@
     <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="27">
         <v>42762</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="e">
         <f>TMM!#REF!</f>
@@ -3017,14 +3031,14 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="27">
         <f>D7</f>
         <v>42762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="e">
         <f>TMM!#REF!</f>
@@ -3041,14 +3055,14 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="27">
         <f>D8</f>
         <v>42762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="e">
         <f>TMM!#REF!</f>
@@ -3065,14 +3079,14 @@
     </row>
     <row r="10" spans="3:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="27">
         <f>D9</f>
         <v>42762</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="30" t="e">
         <f>TMM!#REF!</f>
@@ -3096,34 +3110,34 @@
     <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="27">
         <f>D9</f>
         <v>42762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="e">
         <f>TMM!#REF!</f>
@@ -3140,14 +3154,14 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="27">
         <f>D17</f>
         <v>42762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="e">
         <f>TMM!#REF!</f>
@@ -3164,14 +3178,14 @@
     </row>
     <row r="19" spans="3:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="27">
         <f>D20</f>
         <v>42762</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="30" t="e">
         <f>TMM!#REF!</f>
@@ -3188,14 +3202,14 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="27">
         <f>D18</f>
         <v>42762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="e">
         <f>TMM!#REF!</f>
@@ -3231,46 +3245,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="53"/>
-    <col min="2" max="2" width="37" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="34" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="53"/>
+    <col min="1" max="1" width="11.42578125" style="51"/>
+    <col min="2" max="2" width="37" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="34" style="51" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="51" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>63</v>
+      <c r="H1" s="49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H2" s="54"/>
+      <c r="H2" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:H1">
